--- a/data_preparation/column-2-analyze.xlsx
+++ b/data_preparation/column-2-analyze.xlsx
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
   <si>
     <t>2</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
@@ -28,103 +31,154 @@
     <t>B-AP</t>
   </si>
   <si>
-    <t>rất, không, cùng, cũng, gần, nhiều, thật, đã, đúng, lớn</t>
+    <t>A, R, CH, T, V, C, N, X, Cc, P</t>
+  </si>
+  <si>
+    <t>rất, không, cùng, cũng, gần, nhiều, thật, đã, đúng, đủ</t>
   </si>
   <si>
     <t>B-MP</t>
   </si>
   <si>
-    <t>một, 10%, 20, 4, 7-8 triệu, 97.000, Nào, ba, cả, hai</t>
+    <t>M, R, I</t>
+  </si>
+  <si>
+    <t>một, 10%, cả, 97.000, 7-8 triệu, ba, 20, 4, Nào, hai</t>
   </si>
   <si>
     <t>B-NP</t>
   </si>
   <si>
+    <t>N, P, M, L, Np, Nc, A, R, Ny, CH</t>
+  </si>
+  <si>
     <t>một, những, các, ông, người, tôi, khi, anh, nhà, mình</t>
   </si>
   <si>
     <t>B-PP</t>
   </si>
   <si>
+    <t>E, CH, R, V, Cc, T, C, N, A, X</t>
+  </si>
+  <si>
     <t>của, trong, với, ở, cho, để, từ, vào, đến, về</t>
   </si>
   <si>
     <t>B-QP</t>
   </si>
   <si>
-    <t>một, năm, 1, hai, cả, hàng, ba, 10, 1975, 3</t>
+    <t>M, R, A, T, P, L, CH, V, X, N</t>
+  </si>
+  <si>
+    <t>một, năm, 1, hai, cả, hàng, ba, 500, 10, 3</t>
   </si>
   <si>
     <t>B-TP</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>hiện nay</t>
   </si>
   <si>
     <t>B-VP</t>
   </si>
   <si>
+    <t>V, R, C, CH, Cc, A, T, E, P, N</t>
+  </si>
+  <si>
     <t>đã, là, có, không, cũng, được, và, đi, sẽ, đang</t>
   </si>
   <si>
     <t>B-WH</t>
   </si>
   <si>
+    <t>P, X, E, V, N, CH, R, L, C, Ny</t>
+  </si>
+  <si>
     <t>sao, vì sao, Sao, Tại sao, tại sao, ai, Vì sao, thế nào, gì, ra sao</t>
   </si>
   <si>
     <t>B-WP</t>
   </si>
   <si>
-    <t>bao nhiêu, liệu, như thế nào, sao</t>
+    <t>P, V, X</t>
+  </si>
+  <si>
+    <t>như thế nào, sao, bao nhiêu, liệu</t>
   </si>
   <si>
     <t>B-XP</t>
   </si>
   <si>
-    <t>", Có lẽ, một mình, Mới đây, như vậy, thật ra, như thế nào, có lẽ, dường như, làm sao</t>
+    <t>X, R, CH, P, C, N, L</t>
+  </si>
+  <si>
+    <t>", Có lẽ, một mình, thật ra, như vậy, Mới đây, như thế nào, có lẽ, vẫn, làm sao</t>
   </si>
   <si>
     <t>I-AP</t>
   </si>
   <si>
-    <t>,, hơn, như, nhất, ", nhiều, lắm, và, phải, không</t>
+    <t>A, R, CH, C, N, T, V, Cc, P, X</t>
+  </si>
+  <si>
+    <t>,, hơn, như, nhất, nhiều, ", lắm, và, phải, không</t>
   </si>
   <si>
     <t>I-MP</t>
   </si>
   <si>
-    <t>..., /, cư dân, lớp, m, mét, năm, quyết định, trăm, tuổi</t>
+    <t>N, Nu, CH, M, V</t>
+  </si>
+  <si>
+    <t>mét, tác chiến, đợt, quyết định, năm, trăm, cư dân, /, m, đồng</t>
   </si>
   <si>
     <t>I-NP</t>
   </si>
   <si>
+    <t>N, Np, CH, A, V, P, M, Nc, Nu, R</t>
+  </si>
+  <si>
     <t>,, người, ", này, và, -, năm, một, đó, ngày</t>
   </si>
   <si>
     <t>I-PP</t>
   </si>
   <si>
+    <t>E, CH, N, P, R, C, V, Cc, T, X</t>
+  </si>
+  <si>
     <t>trong, đến, từ, sau, ở, ..., với, vì, trên, cho</t>
   </si>
   <si>
     <t>I-QP</t>
   </si>
   <si>
-    <t>-, ha, triệu, ,, /, hai, đồng, ngàn, 2, 3</t>
+    <t>M, CH, Nu, N, A, R, V, L, Nc, E</t>
+  </si>
+  <si>
+    <t>-, ha, triệu, ,, /, đồng, hai, ngàn, 2, 4</t>
   </si>
   <si>
     <t>I-VP</t>
   </si>
   <si>
+    <t>V, R, CH, A, N, C, Cc, T, P, E</t>
+  </si>
+  <si>
     <t>được, có, ", ,, :, là, ra, lại, không, biết</t>
   </si>
   <si>
     <t>I-WH</t>
   </si>
   <si>
-    <t>sao, nào, hở, vậy, gì, hả, không, mực, ra sao, thế</t>
+    <t>P, T, N, R, X</t>
+  </si>
+  <si>
+    <t>sao, nào, vậy, hở, điểm, gì, hả, không, ra sao, mực</t>
   </si>
   <si>
     <t>I-WP</t>
@@ -136,16 +190,25 @@
     <t>I-XP</t>
   </si>
   <si>
-    <t>", chìm xuồng, như, ..., :, T gì, cha truyền con nối, câm như hến, cầu trời khấn phật, giẫm chân tại chỗ</t>
+    <t>X, CH, C, R, T, P, A</t>
+  </si>
+  <si>
+    <t>", chìm xuồng, như, T gì, thập tử nhất sinh, xi-ghem, cầu trời khấn phật, hay, lẽ nào, trong ấm ngoài êm</t>
   </si>
   <si>
     <t>N-NP</t>
   </si>
   <si>
+    <t>Nc</t>
+  </si>
+  <si>
     <t>sự</t>
   </si>
   <si>
     <t>O</t>
+  </si>
+  <si>
+    <t>CH, C, Cc, E, R, X, T, I, P, V</t>
   </si>
   <si>
     <t>., ,, ..., ", thì, nhưng, ?, và, mà, !</t>
@@ -497,7 +560,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,7 +568,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -515,235 +578,301 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4863</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>40074</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11798</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="n">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="n">
+        <v>26181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="n">
         <v>4</v>
       </c>
-      <c r="C2" t="n">
-        <v>4863</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="n">
-        <v>40074</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="n">
-        <v>11798</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="n">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="n">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3354</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="n">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="n">
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="n">
+        <v>53097</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="n">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="n">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" t="n">
+        <v>24375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="n">
-        <v>26181</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="n">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="n">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="n">
-        <v>3354</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="n">
-        <v>53097</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" t="n">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" t="n">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" t="n">
-        <v>24375</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" t="n">
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" t="n">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" t="n">
         <v>20852</v>
       </c>
     </row>
